--- a/biology/Zoologie/Aviatyrannis/Aviatyrannis.xlsx
+++ b/biology/Zoologie/Aviatyrannis/Aviatyrannis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aviatyrannis est un genre de dinosaure de la super-famille des Tyrannosauroidea découvert en 2000 et classé en 2003. Il vivait au Jurassique, dans l'actuel Portugal.
 Il était de petite taille (1,4 m). Son régime, comme tous les Tyrannosauroidea, était carnivore, mais étant donné sa taille, il se nourrissait de petits animaux, lézards comme petits mammifères. 
@@ -513,7 +525,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Oliver W. M. Rauhut., « A tyrannosauroid dinosaur from the Upper Jurassic of Portugal », Palaeontology, vol. 46,‎ 2003, p. 903–910 (DOI 10.1111/1475-4983.00325, lire en ligne)</t>
         </is>
